--- a/src/test/resources/excel/User/UserController-testData.xlsx
+++ b/src/test/resources/excel/User/UserController-testData.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGABYTE\Desktop\pbl6\backend\backend\src\test\resources\excel\User\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B25647-989B-4F6C-BF64-7B33CC5D5268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774BE3BF-6211-4C6F-98DB-A54EC9496592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0AF89402-F3F6-444A-A783-32C61F98DAD5}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateUser" sheetId="1" r:id="rId1"/>
-    <sheet name="UpdateUser" sheetId="2" r:id="rId2"/>
+    <sheet name="UpdateUser" sheetId="4" r:id="rId2"/>
+    <sheet name="UpdateUser1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>testName</t>
   </si>
@@ -650,18 +652,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2">
-        <v>400</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -669,18 +663,100 @@
     <hyperlink ref="B3" r:id="rId2" display="mailto:a@email.com" xr:uid="{DC2ED82C-F957-4369-A102-0D86441C7FC0}"/>
     <hyperlink ref="B4" r:id="rId3" display="mailto:other@email.com" xr:uid="{AFBD6D77-0D3F-4AD9-ACE6-02C8DE9F1B68}"/>
     <hyperlink ref="B5" r:id="rId4" display="mailto:existing@email.com" xr:uid="{09A91DC4-0275-47DC-8C1E-F7815089D1D8}"/>
-    <hyperlink ref="B6" r:id="rId5" display="mailto:user5@email.com" xr:uid="{500BA049-4011-4647-B83F-9F76C69584FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35BA22C-B7E6-473E-BFC8-E49C1632372A}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5">
+        <v>200</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="5">
+        <v>400</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5">
+        <v>404</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364A1B15-52EA-46FD-9686-6053D953935B}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,4 +838,36 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2099AB57-8FAE-4B9C-8F00-09DE23D03618}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2">
+        <v>400</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="mailto:user5@email.com" xr:uid="{5F3B0C20-5824-44F1-8B48-DBD2119B977B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>